--- a/evalution1.xlsx
+++ b/evalution1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="122">
   <si>
     <t>iter</t>
   </si>
@@ -25,142 +25,361 @@
     <t>fit</t>
   </si>
   <si>
-    <t>less[petal width (cm),{'p': 0.26781425895127253}](less[sepal length (cm),{'p': 0.5358948017866947}](less[petal length (cm),{'p': 0.7379631935753984}](less[sepal length (cm),{'p': 0.18728892640831596}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.3448332147682911}](nom_class:2, nom_class:1)), less[sepal length (cm),{'p': 0.40212911017113173}](less[sepal length (cm),{'p': 0.8559260147233843}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.7288603955087681}](nom_class:1, nom_class:0))), less[sepal length (cm),{'p': 0.22911793513403167}](less[petal length (cm),{'p': 0.7620391411953645}](less[petal width (cm),{'p': 0.03401358168460922}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.7488004196139313}](nom_class:2, nom_class:0)), less[petal length (cm),{'p': 0.5074106751086238}](less[petal length (cm),{'p': 0.8982618476038889}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.05655801100921154}](nom_class:1, nom_class:0))))</t>
-  </si>
-  <si>
-    <t>less[sepal length (cm),{'p': -0.7870293047729873}](less[petal length (cm),{'p': 0.709716590751382}](less[sepal width (cm),{'p': 2.0337505060532335}](less[sepal width (cm),{'p': 0.8126404111091077}](nom_class:2, nom_class:2), less[petal width (cm),{'p': -0.40489038602275557}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 1.6763748237102432}](less[petal length (cm),{'p': 0.17372407964700454}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.9911970735407337}](nom_class:1, nom_class:0))), less[petal width (cm),{'p': 1.7393723541006014}](less[sepal length (cm),{'p': 0.6306409064140006}](less[petal width (cm),{'p': 1.2675830972230384}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 1.700525596788186}](nom_class:0, nom_class:1)), less[petal width (cm),{'p': 0.22616769076791077}](less[petal length (cm),{'p': 1.906417233877669}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.9528542584660109}](nom_class:0, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': -0.28386565059033514}](less[petal width (cm),{'p': 2.3521499122790317}](less[petal width (cm),{'p': -0.9226986297769094}](less[sepal width (cm),{'p': 0.3812880284465091}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.3801911217021527}](nom_class:1, nom_class:0)), less[petal length (cm),{'p': 0.08114402802596721}](less[petal width (cm),{'p': 0.1848260290158242}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0.2281945799471447}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 3.008875652450801}](less[sepal length (cm),{'p': 0.8148424911445673}](less[petal width (cm),{'p': -0.7315666710560068}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 1.986222103244629}](nom_class:0, nom_class:1)), less[petal length (cm),{'p': -0.10139831509121347}](less[sepal length (cm),{'p': -0.3317674273833406}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 1.0183878238380883}](nom_class:1, nom_class:0))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.6838514174562563}](less[petal length (cm),{'p': 0.049072544661449724}](less[petal width (cm),{'p': 0.35578729380172835}](less[sepal width (cm),{'p': 0.4452241137235172}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.71550256355182}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 0.8732171348805382}](less[sepal width (cm),{'p': 0.7599460748223978}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0.7319143487149057}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 0.42969082848167406}](less[petal width (cm),{'p': 0.8816255278189772}](less[sepal length (cm),{'p': 0.9479137953043011}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0.7654415617965693}](nom_class:1, nom_class:0)), less[petal length (cm),{'p': 0.27279136248209346}](less[petal width (cm),{'p': 0.8291199472041301}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.5877928486661259}](nom_class:2, nom_class:0))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.6841327762098649}](less[sepal width (cm),{'p': 0.8972365463402547}](less[sepal width (cm),{'p': 0.7992354105654059}](less[petal length (cm),{'p': 0.35699698467293217}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.11566234236168854}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.42368696131970107}](less[petal width (cm),{'p': 0.9301275970360634}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 0.759679998435046}](nom_class:0, nom_class:1))), less[petal length (cm),{'p': -0.009725161069984112}](less[sepal length (cm),{'p': 0.29215961937861706}](less[sepal length (cm),{'p': 0.18748069711189225}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.978368023771778}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 0.7915460296601753}](less[sepal length (cm),{'p': 0.3706176040811392}](nom_class:1, nom_class:0), less[petal length (cm),{'p': -0.03158586298476507}](nom_class:0, nom_class:1))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.1120734665043193}](less[petal width (cm),{'p': -0.24839331104193632}](less[sepal length (cm),{'p': 0.10159622221302339}](less[petal width (cm),{'p': 0.844768953603573}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.6258417635071738}](nom_class:2, nom_class:1)), less[sepal length (cm),{'p': 0.8758768532594734}](less[sepal length (cm),{'p': -0.39678680439099395}](nom_class:2, nom_class:1), less[petal length (cm),{'p': -0.0342083586468063}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.7629252045564547}](less[sepal length (cm),{'p': 0.2736711814209602}](less[petal width (cm),{'p': 1.8435386904924926}](nom_class:0, nom_class:2), less[petal width (cm),{'p': -0.27539310758516156}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 0.5957182327163959}](less[petal length (cm),{'p': 0.32234594640708747}](nom_class:1, nom_class:1), less[petal length (cm),{'p': -0.011127649868048095}](nom_class:1, nom_class:0))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 4.667067414430261}](less[petal width (cm),{'p': 0.9278511075867776}](less[petal length (cm),{'p': 1.490452016475278}](less[petal width (cm),{'p': 0.7334586311039928}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.5520377250077322}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.05624760403028917}](less[sepal width (cm),{'p': 0.8695361318765001}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.10281490462767251}](nom_class:0, nom_class:1))), less[petal length (cm),{'p': 0.028330066202796836}](less[petal width (cm),{'p': 0.6557473032260337}](less[sepal length (cm),{'p': 1.417920610005184}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.1919674825863945}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 0.13721288973877177}](less[sepal width (cm),{'p': 0.9336343990300893}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.4385152233584556}](nom_class:0, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.5411686834216074}](less[petal width (cm),{'p': 0.8659874452730107}](less[petal width (cm),{'p': 0.9603624731585041}](less[sepal length (cm),{'p': 1.050263358738171}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': -0.18259106469658892}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 0.2206243878155873}](less[sepal length (cm),{'p': 0.709590120634769}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.17495314540750784}](nom_class:0, nom_class:0))), less[petal length (cm),{'p': 0.9536588255633118}](less[petal width (cm),{'p': 0.38634526828889254}](less[petal width (cm),{'p': -0.006766660361464172}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': -0.0008723892960099955}](nom_class:2, nom_class:1)), less[sepal length (cm),{'p': 0.6370849310569147}](less[sepal width (cm),{'p': 0.42505159393560354}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.7356340955940617}](nom_class:2, nom_class:1))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 3.7973890673139405}](less[petal width (cm),{'p': 0.8067623445964314}](less[sepal width (cm),{'p': 1.5746543681076512}](less[petal width (cm),{'p': 1.638863276181206}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 3.100990712218944}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 2.8262103088606207}](less[sepal width (cm),{'p': 0.9442783847259894}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.2136549066566158}](nom_class:2, nom_class:1))), less[petal length (cm),{'p': -1.9036608703937534}](less[petal width (cm),{'p': 1.7437121223706376}](less[sepal length (cm),{'p': -0.25672217321175383}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 2.4471928245713426}](nom_class:1, nom_class:0)), less[petal length (cm),{'p': 4.8366936333392605}](less[sepal length (cm),{'p': 1.0509593950726095}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.67400582685265}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.846086878740701}](less[sepal length (cm),{'p': -0.03443860877199045}](less[sepal length (cm),{'p': 1.466941277991633}](less[petal length (cm),{'p': 0.3605802181209778}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.0427163407211917}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.1198015304940818}](less[sepal length (cm),{'p': 0.3311753559871321}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.6539673341109205}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 1.285596772069316}](less[sepal width (cm),{'p': 0.15149870078658692}](less[petal length (cm),{'p': -0.21817949563353575}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.0004996215367051859}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.671114711267054}](less[sepal width (cm),{'p': 0.9207721591290927}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.24310782456561758}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.7030874836057794}](less[sepal length (cm),{'p': 0.46202319805206576}](less[sepal length (cm),{'p': -0.33435520392694523}](less[sepal width (cm),{'p': -0.22858683146023046}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 2.0816885429807046}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.6895617995842243}](less[sepal length (cm),{'p': 0.30423486019749457}](less[petal length (cm),{'p': 0.6480739790561572}](nom_class:2, nom_class:2), nom_class:2), less[sepal width (cm),{'p': 0.6299064319345007}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.11952830233936934}](less[sepal width (cm),{'p': -1.1216981877159744}](less[petal length (cm),{'p': 0.7392461272166441}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.7041027611567534}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.6962059425475517}](less[sepal length (cm),{'p': 1.7608821823081942}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 1.0812605755006088}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 0.6736033717896391}](less[petal width (cm),{'p': 0.5197294100951282}](less[petal length (cm),{'p': 0.8851261242175942}](less[petal width (cm),{'p': -0.8916013079852377}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.23587174021535523}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': -0.8473761987978901}](less[sepal width (cm),{'p': 0.7503069215003592}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': -0.019937201918458852}](nom_class:0, nom_class:1))), less[sepal width (cm),{'p': 0.5051788985761192}](less[petal width (cm),{'p': 2.657585622638792}](less[sepal length (cm),{'p': 0.4530800371774318}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.5969650945001429}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': -0.29185909596841036}](less[petal length (cm),{'p': 2.389401845022815}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 2.0820846762044574}](nom_class:0, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.8275313810054845}](less[petal width (cm),{'p': 0.6495841461836434}](less[sepal width (cm),{'p': 1.8831816505326942}](less[petal width (cm),{'p': -0.4818583768437419}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0.5627930310043117}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': -0.15631437163514644}](less[sepal width (cm),{'p': 1.1358133666970986}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.18580410198594433}](nom_class:2, nom_class:1))), less[petal length (cm),{'p': -0.028504902950533983}](less[petal width (cm),{'p': -0.025444012960503304}](less[sepal length (cm),{'p': 0.6890180339816084}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.26350580720032946}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 4.823563632766109}](less[sepal width (cm),{'p': -2.371289704338375}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.677975169884073}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.7753858380218687}](less[sepal length (cm),{'p': 0.5519358754228368}](less[sepal length (cm),{'p': 0.32146001362358456}](less[petal length (cm),{'p': 0.3295897290490538}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.9051605890095169}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.6793958413291326}](less[sepal length (cm),{'p': 0.9073309442519026}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.08722343656708487}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.8958285453388533}](less[sepal width (cm),{'p': 0.29091323921648315}](less[petal width (cm),{'p': 0.11109165305382318}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.6466752028740976}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 0.08365931271626725}](less[petal width (cm),{'p': 0.09970346909464445}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.3606868681923545}](nom_class:2, nom_class:1))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.8629646946933188}](less[sepal length (cm),{'p': 0.7633953952492101}](less[sepal length (cm),{'p': 0.4521045598142699}](less[sepal length (cm),{'p': 0.7776615054142018}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.7146322674350805}](nom_class:2, nom_class:0)), nom_class:0), less[sepal width (cm),{'p': 0.652259681558603}](less[sepal width (cm),{'p': 0.2834368598209849}](less[petal length (cm),{'p': 0.12470347908132517}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.5537103803444096}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 0.37034048383915075}](less[sepal width (cm),{'p': 0.8615251246833479}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.16227785115309357}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.975990534864195}](less[petal width (cm),{'p': 0.7191578222848356}](less[sepal width (cm),{'p': -0.8331417019871814}](less[petal length (cm),{'p': 0.8736654015212397}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0.669716583999298}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 0.5545991714419578}](less[sepal width (cm),{'p': 0.618899767111456}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.5136703019887753}](nom_class:2, nom_class:1))), less[sepal width (cm),{'p': 0.1130757406650893}](less[petal width (cm),{'p': -0.5673028378321405}](less[sepal length (cm),{'p': 1.9052068545015741}](nom_class:2, nom_class:1), less[petal width (cm),{'p': -0.5545192597152253}](less[sepal width (cm),{'p': 0.3470444743558862}](nom_class:2, nom_class:1), nom_class:0)), less[petal length (cm),{'p': 4.807706869510683}](less[sepal length (cm),{'p': 0.5857729497743583}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.35954379457669694}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.7983157640650014}](less[sepal length (cm),{'p': 0.9772443205266836}](less[sepal length (cm),{'p': 0.7886388044415216}](less[petal length (cm),{'p': 0.5006361976734857}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.5363566703012823}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.3726405601443892}](less[sepal length (cm),{'p': 0.646850764114866}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.8133757909854492}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.7131600935893582}](less[sepal width (cm),{'p': 0.9978148028086042}](less[petal length (cm),{'p': 0.996101595368902}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.7049931421945579}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.6236928594802444}](less[sepal width (cm),{'p': 1.0801638952606822}](less[sepal width (cm),{'p': 0.7047786982103313}](less[petal length (cm),{'p': 0.5380688462484302}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.32840274682572784}](nom_class:1, nom_class:1)), nom_class:1), less[sepal width (cm),{'p': 0.6428838289283223}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.9575569374282007}](less[petal width (cm),{'p': 0.8231244867280993}](less[petal length (cm),{'p': 1.0344634435918734}](less[petal width (cm),{'p': 0.8052553941761136}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 2.00672725333596}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 0.9749418681657781}](less[sepal width (cm),{'p': 1.0781948339343286}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.8208797645162946}](nom_class:2, nom_class:0))), less[petal length (cm),{'p': 2.9952247296829713}](less[sepal width (cm),{'p': 0.2970520008503974}](less[sepal length (cm),{'p': 0.616876882214805}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.09973566882543827}](less[petal width (cm),{'p': 0.2923407452850154}](nom_class:1, nom_class:2), nom_class:0)), less[petal length (cm),{'p': 4.937345851374773}](less[sepal length (cm),{'p': 0.961071378872153}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.8490741165100395}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.8749426004602925}](less[sepal length (cm),{'p': 0.7424236295397109}](less[sepal length (cm),{'p': 0.4355663946979868}](less[petal length (cm),{'p': 0.24435962611811046}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.7424273204147716}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.5166278115209249}](less[sepal length (cm),{'p': 0.4322160889982971}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.8365805627342593}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.2907798923725428}](less[sepal width (cm),{'p': 0.425123452432222}](less[petal length (cm),{'p': 0.5830742708192678}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.2461938057757436}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.6134698555082754}](less[sepal width (cm),{'p': 0.4931080619417664}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.7951867830359989}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.6909139150596629}](less[sepal length (cm),{'p': 0.314027368432148}](less[sepal length (cm),{'p': 0.33228145389292724}](less[petal length (cm),{'p': 0.31815181960406963}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 1.33208783458503}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.5501131340210008}](less[sepal length (cm),{'p': -0.29780372791586596}](nom_class:1, less[sepal length (cm),{'p': 0.820320181804737}](less[sepal length (cm),{'p': 0.5692484106098248}](less[petal length (cm),{'p': -0.3797212275237426}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 1.7254758106881056}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.148704201431285}](less[sepal length (cm),{'p': 1.0200847808393614}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': 0.6706647069222357}](nom_class:0, nom_class:0)))), less[sepal width (cm),{'p': -0.46254874751473474}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.053793231911890504}](less[sepal width (cm),{'p': -0.02853723257643037}](less[petal length (cm),{'p': 0.2147991097055235}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': -0.17266351362850962}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.6098726187964665}](less[sepal width (cm),{'p': 0.703501161511628}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': -0.33981483971220444}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.8043714515068295}](less[sepal length (cm),{'p': -0.21440378390013276}](less[sepal length (cm),{'p': 0.2969833613937153}](less[petal length (cm),{'p': 1.1110409458784127}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.00814705368601211}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.0012168235493619228}](less[sepal length (cm),{'p': 1.1413138509046292}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 1.5011459660609383}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.46006160096214105}](less[sepal width (cm),{'p': 0.9977990769087968}](less[petal length (cm),{'p': 0.827809231061142}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.9369198092647316}](nom_class:1, less[petal width (cm),{'p': 0.3311450878678833}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.6034352324896601}](less[sepal width (cm),{'p': 0.7959162644067544}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.36471093142629085}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.7777417718135353}](less[petal length (cm),{'p': 0.07319112608799427}](less[sepal length (cm),{'p': 0.5067736738449458}](less[sepal length (cm),{'p': 0.9271912736315636}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.6595837035458767}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.35526005404648464}](less[sepal length (cm),{'p': 0.3300663977079823}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.9504568465970262}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.7116263650766217}](less[sepal width (cm),{'p': 0.8285223025009267}](less[petal length (cm),{'p': 0.7610856682507677}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.8027349545979742}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 0.5704949415952232}](less[sepal width (cm),{'p': 0.8638182747215922}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.5508126151808711}](nom_class:2, nom_class:1))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.9236078078193001}](less[sepal length (cm),{'p': 0.19164303278706618}](less[sepal length (cm),{'p': 0.3689279606942132}](less[petal length (cm),{'p': 0.24800841474318003}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.5177085121703479}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 0.7812705349093881}](less[sepal length (cm),{'p': 0.5021092866489546}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.37288223704468415}](nom_class:2, less[sepal length (cm),{'p': 0.30108099259251353}](nom_class:1, nom_class:1)))), less[sepal width (cm),{'p': 0.7050600209576303}](less[sepal width (cm),{'p': 0.20575206745804664}](less[petal length (cm),{'p': 0.6602005051090208}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.029520054187884948}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 0.4378683888988605}](less[sepal width (cm),{'p': 0.8894386753079774}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.2868694930836765}](nom_class:2, nom_class:1))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.7924965480735111}](less[petal length (cm),{'p': 0.10704541852169303}](less[sepal length (cm),{'p': 0.6843477368217572}](less[sepal width (cm),{'p': 0.2881698724275485}](less[sepal length (cm),{'p': 0.6534058400615125}](less[sepal width (cm),{'p': 0.04784280223967541}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.03718536412423745}](nom_class:2, nom_class:0)), nom_class:2), less[sepal length (cm),{'p': 0.6641693182567944}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 0.5449747069929165}](less[sepal width (cm),{'p': 0.5466964226840969}](less[petal length (cm),{'p': 0.0031744591025242297}](nom_class:2, nom_class:2), nom_class:1), less[sepal length (cm),{'p': 0.8238722970132514}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.6635514915938422}](less[sepal width (cm),{'p': 0.21689471196011534}](less[petal length (cm),{'p': 0.5279043079283228}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.599502487873}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.1184985163440126}](less[sepal length (cm),{'p': 0.7755185390811777}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.3522820261302308}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 4.917690231645995}](less[petal length (cm),{'p': 1.971563972389047}](less[sepal width (cm),{'p': 2.2973685980913574}](less[petal width (cm),{'p': 1.186329956951728}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0.9934968563425866}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 0.021451859549706853}](less[sepal width (cm),{'p': 2.11073005928088}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.0947042647033901}](nom_class:2, nom_class:1))), less[petal length (cm),{'p': -0.06487349664181763}](less[petal width (cm),{'p': 2.033732849191855}](less[petal width (cm),{'p': -0.06726150066616599}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.0998176519082399}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 2.9475746535098777}](less[sepal width (cm),{'p': -0.49871405752279774}](less[sepal width (cm),{'p': 0.8207910195950783}](nom_class:0, nom_class:0), nom_class:1), less[sepal length (cm),{'p': 0.5408055335033937}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.7070509781936075}](less[sepal length (cm),{'p': 0.38486827645877775}](less[sepal length (cm),{'p': 0.44935431481344235}](less[petal length (cm),{'p': 1.0320012895654236}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.0670757194751137}](nom_class:2, less[sepal length (cm),{'p': 0.18039285753668524}](nom_class:1, nom_class:0))), less[sepal width (cm),{'p': 0.5127697557224344}](less[sepal length (cm),{'p': 0.40114109102972434}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.9336207288119951}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.47113301128375673}](less[petal width (cm),{'p': 1.0589207228455382}](less[sepal width (cm),{'p': 1.1473310393824268}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.7280286175927978}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.6215797230254394}](less[sepal width (cm),{'p': 0.475830453102291}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.8080056750435288}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.778910866864118}](less[sepal length (cm),{'p': 1.0161030661380663}](less[sepal length (cm),{'p': 0.733868728632146}](less[sepal width (cm),{'p': 0.5186441400956036}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': -0.03858454275664125}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.2257896307283926}](less[sepal length (cm),{'p': 0.4343397276742307}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.24373320787240854}](nom_class:2, nom_class:0))), less[sepal width (cm),{'p': 0.17791150294732538}](less[sepal length (cm),{'p': 0.9141469127643649}](less[sepal width (cm),{'p': 0.7802244799599518}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.5435235276599197}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 0.6294959677288586}](nom_class:2, less[sepal width (cm),{'p': 0.7851824867739675}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 0.42280129721304816}](less[sepal length (cm),{'p': 0.40332428274101995}](less[sepal length (cm),{'p': 0.7262713613979488}](less[sepal width (cm),{'p': 1.210646791082389}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.3789837755755104}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.5703852262509608}](less[sepal length (cm),{'p': 0.9716848155004949}](less[petal length (cm),{'p': 0.6262756584765241}](nom_class:2, nom_class:2), nom_class:2), less[sepal width (cm),{'p': 0.4820768302575712}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.5967623704598727}](less[sepal width (cm),{'p': -0.03767355666283112}](less[petal length (cm),{'p': 0.28665584054089704}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.6283588151804367}](nom_class:0, nom_class:1)), less[petal width (cm),{'p': 0.7411753366167867}](less[sepal length (cm),{'p': 1.1283593494902786}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.8631464521403112}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': -0.30831627831586883}](less[sepal length (cm),{'p': 0.2529478541271038}](less[sepal length (cm),{'p': 0.5674768617701353}](less[petal length (cm),{'p': 0.061391639444668314}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.6912214917661077}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.3246317422751113}](less[sepal length (cm),{'p': 0.061868830278228315}](nom_class:1, nom_class:2), nom_class:2)), less[sepal width (cm),{'p': 0.8610354803067803}](less[sepal width (cm),{'p': 0.6293394478196922}](less[petal length (cm),{'p': -0.15972081411667804}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.6044778094103165}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.7388743653490706}](less[sepal width (cm),{'p': 1.301773794636346}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.39771000354795494}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.787663336392289}](less[sepal length (cm),{'p': 0.9519126868768215}](less[sepal length (cm),{'p': 0.1309549219800532}](less[sepal width (cm),{'p': 0.5264853697722679}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.5015282231883681}](nom_class:2, nom_class:0)), less[petal length (cm),{'p': 0.7167549862744576}](less[sepal length (cm),{'p': 1.0393043651958243}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.1820517693674542}](nom_class:2, nom_class:0))), less[sepal width (cm),{'p': 0.8353258848959848}](less[sepal length (cm),{'p': 0.5193119868475531}](less[sepal width (cm),{'p': 0.8025329419718361}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.23322057106926558}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': 0.13502372549450173}](nom_class:2, less[sepal width (cm),{'p': 0.568825927007098}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 0.6282475511274936}](less[petal length (cm),{'p': 1.0366329682620674}](less[sepal width (cm),{'p': -0.45179069074610956}](less[petal width (cm),{'p': -0.8785435676767566}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': -0.7402323574243747}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.6647591473017816}](less[sepal width (cm),{'p': 0.5964964178512433}](nom_class:0, less[petal length (cm),{'p': 0.5825636457730778}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': -1.4968640235148354}](nom_class:2, nom_class:1))), less[petal length (cm),{'p': -0.6723620729776566}](less[petal width (cm),{'p': 0.09870132706250764}](less[petal width (cm),{'p': 0.8992588377282208}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.1490956029987598}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 2.8329881626726126}](less[sepal width (cm),{'p': 4.268579609761739}](less[sepal width (cm),{'p': -2.477891489029705}](nom_class:0, nom_class:0), nom_class:1), less[sepal length (cm),{'p': -0.4930203895635304}](nom_class:0, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': -0.2862884940086402}](less[sepal length (cm),{'p': 0.7561743623294165}](less[sepal length (cm),{'p': -0.005746440562510502}](less[petal length (cm),{'p': -0.036492325873668296}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.35471081665467435}](nom_class:2, less[sepal length (cm),{'p': 0.2716374483157022}](nom_class:1, nom_class:2))), less[sepal width (cm),{'p': 0.39774442503444485}](less[sepal length (cm),{'p': 0.9988749696420507}](nom_class:1, nom_class:2), nom_class:2)), less[sepal width (cm),{'p': -0.2553191912580206}](less[petal width (cm),{'p': 0.7019623821639063}](less[sepal width (cm),{'p': 0.5867021988341701}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.49281375111247083}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.7374378284546224}](less[sepal width (cm),{'p': 0.712271216829988}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 1.1300475055431274}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.9139782160524962}](less[sepal length (cm),{'p': -0.5632914779033494}](less[sepal length (cm),{'p': 0.17761605353952464}](less[petal length (cm),{'p': -0.27693863448438094}](nom_class:1, nom_class:2), nom_class:1), less[sepal width (cm),{'p': 0.7146897896423097}](less[sepal length (cm),{'p': 0.5668401301704935}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.05069242244317196}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 2.9265271177601595}](less[petal width (cm),{'p': 0.774736168804772}](less[sepal width (cm),{'p': 0.3657488831708425}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.4177258787140916}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 0.34750517838112926}](less[sepal width (cm),{'p': 0.35145957750196477}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.7928757298221263}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.8111986140579821}](less[sepal length (cm),{'p': 0.18119976819859307}](less[sepal length (cm),{'p': 1.118149587276225}](less[petal length (cm),{'p': 0.5938125818892532}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.07982382875020333}](nom_class:2, less[sepal length (cm),{'p': -0.06819412211849896}](nom_class:1, nom_class:1))), less[sepal width (cm),{'p': 1.3439262383213242}](less[sepal length (cm),{'p': 0.6328477649134616}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': -0.2519080428501097}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 1.0198873601639873}](less[sepal width (cm),{'p': 0.6126643177212777}](less[petal length (cm),{'p': 1.7706313214455294}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.7189709977906529}](nom_class:1, nom_class:0)), less[petal width (cm),{'p': 1.6564583079591588}](less[sepal width (cm),{'p': 0.6119880256933734}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': -0.041352893430074644}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.6486937112572952}](less[sepal length (cm),{'p': -0.26966585625313033}](less[petal length (cm),{'p': 1.864926911081941}](less[petal length (cm),{'p': -0.03927757098221979}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.2602925926702389}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': -0.31397975058307}](less[petal width (cm),{'p': 0.5407256404279499}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 2.2935940930775254}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.22180086265563198}](less[sepal width (cm),{'p': 0.9498771035884039}](less[petal length (cm),{'p': 1.0653308320254171}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.7984108370446854}](less[sepal length (cm),{'p': -0.18232483837713193}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': -0.3421871854262315}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 1.6703650305511286}](less[sepal width (cm),{'p': 1.3980360003786767}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.8660616843001685}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.947494465049638}](less[sepal length (cm),{'p': 0.430134743769801}](less[sepal length (cm),{'p': -0.17514913431923912}](less[sepal width (cm),{'p': 0.35485519736501775}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.7539646264769289}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.061484046660908676}](less[sepal length (cm),{'p': 1.033360376540318}](nom_class:1, less[sepal width (cm),{'p': 0.493988516481073}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': -0.30217248205836084}](nom_class:2, nom_class:0))), less[sepal width (cm),{'p': 0.9210627565094828}](less[sepal length (cm),{'p': 0.9409240817098595}](less[sepal width (cm),{'p': 0.0204904534729059}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.8117410025641811}](nom_class:1, nom_class:0)), less[petal width (cm),{'p': 1.1019132098696194}](nom_class:2, less[sepal width (cm),{'p': 1.631254054829522}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 0.17292251575165418}](less[sepal length (cm),{'p': 0.7444269545347335}](less[sepal length (cm),{'p': 0.5308578051547834}](less[petal length (cm),{'p': 0.09569837551586946}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.16507151152536192}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.42700159253631587}](less[sepal length (cm),{'p': 0.33954981719111554}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.7774976134883437}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.4542960732577236}](less[sepal width (cm),{'p': 0.5723835134540914}](less[petal length (cm),{'p': 0.5106485582888478}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 0.7096157074770891}](nom_class:1, less[petal width (cm),{'p': 0.23673953240793355}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 0.6663821889067029}](nom_class:0, less[sepal width (cm),{'p': 0.284377322093485}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.8415713784483578}](less[sepal length (cm),{'p': 0.16126862841314119}](less[sepal length (cm),{'p': 0.44161849136922304}](less[petal length (cm),{'p': 0.3958670049909694}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.36781559841325556}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.6484882173318118}](less[sepal length (cm),{'p': 1.3063094420257138}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': -0.021201122531982947}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 2.950405275354151}](less[sepal width (cm),{'p': 0.37750052812552376}](less[petal length (cm),{'p': 1.0571332190335891}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.28076417938503717}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 0.448072081267371}](less[petal length (cm),{'p': 1.146556625180868}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.2749082375337623}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.9095401126051401}](less[sepal length (cm),{'p': 1.1382836008409947}](less[sepal length (cm),{'p': 1.562902405549591}](less[sepal length (cm),{'p': 0.24188079106546193}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.8876071952285816}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.044118511217609624}](less[sepal length (cm),{'p': 0.6016338272835529}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 1.3817796444292947}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.35139741795534296}](less[petal width (cm),{'p': -0.15179323962850536}](less[petal width (cm),{'p': 0.17359843539926917}](less[sepal width (cm),{'p': 0.0910217726821051}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.6979477717394731}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': -0.71056140255275}](nom_class:1, nom_class:0)), less[petal width (cm),{'p': 1.6531007734335859}](less[sepal width (cm),{'p': 0.3131104427092712}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.9796672017126258}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 1.6330972875772005}](less[petal length (cm),{'p': 1.0228402116614115}](less[petal length (cm),{'p': 1.2052570234134818}](less[petal length (cm),{'p': -0.8534698992861505}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.7925054192707213}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': -0.2380918266783682}](less[petal width (cm),{'p': -0.08076378089596514}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.11556884332409842}](less[petal length (cm),{'p': -0.2948525712249985}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.2368571279399172}](nom_class:2, less[sepal length (cm),{'p': 0.4928172814244832}](nom_class:1, nom_class:1))))), less[sepal width (cm),{'p': 1.042873883807861}](less[sepal width (cm),{'p': 0.21495913366215536}](less[petal length (cm),{'p': -0.3720588631141694}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 1.2711662903694476}](less[sepal length (cm),{'p': 0.6595610923905628}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.7368446608035031}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 1.7655800609835937}](less[sepal width (cm),{'p': 0.5301936364057057}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': -0.24002063987238267}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.6371721693200201}](less[sepal length (cm),{'p': -0.023828233182455444}](less[petal length (cm),{'p': 0.5646656994243975}](less[petal length (cm),{'p': 0.3231995983674617}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.6067834206864097}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 0.06761134858194927}](less[petal width (cm),{'p': 0.4465473605337643}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.5426384810659689}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.8747139374594333}](less[sepal width (cm),{'p': 1.3601338875653952}](less[petal length (cm),{'p': 1.4506002537739406}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.5572246527753153}](less[sepal length (cm),{'p': 1.6049511332720048}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0.09785901546137482}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 1.6646448075551121}](less[sepal width (cm),{'p': 0.33470427523950697}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.46362836001091806}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 0.2768599474812782}](less[sepal length (cm),{'p': 0.5337500563335713}](less[sepal length (cm),{'p': 0.3103877636587099}](less[petal length (cm),{'p': 0.20653142314450856}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.6401535481513783}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.2160564756046076}](less[sepal length (cm),{'p': 0.25387657599036717}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.6473959259321372}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.3662515356013425}](less[sepal width (cm),{'p': 0.8752245919646976}](less[petal length (cm),{'p': 0.18824955821003775}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 0.11199996211398866}](nom_class:1, less[petal width (cm),{'p': 0.26222527477349}](nom_class:1, nom_class:0))), less[petal width (cm),{'p': 0.6392716380122482}](nom_class:0, less[sepal width (cm),{'p': 0.34014594627493}](less[petal length (cm),{'p': 0.9526971113837066}](nom_class:0, nom_class:2), nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.8156229907228569}](less[sepal length (cm),{'p': 1.1641419969239952}](less[sepal length (cm),{'p': -0.36348546371175006}](less[petal length (cm),{'p': 1.0933040273973127}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': -0.3161395100918316}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': -0.3403826778679986}](less[sepal length (cm),{'p': 0.4198872889425757}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 1.6175654911915096}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 1.1585986003216227}](less[sepal width (cm),{'p': -1.27439073894893}](less[petal length (cm),{'p': 1.6363878809150743}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.8344072458684418}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.6322729067974207}](less[sepal width (cm),{'p': 0.1970975558452938}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 1.6396492871278718}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.900463395057606}](less[sepal length (cm),{'p': 0.5509996555261556}](less[petal length (cm),{'p': 0.4765573645656597}](less[petal length (cm),{'p': 0.6628718937563797}](nom_class:1, nom_class:0), less[petal length (cm),{'p': 1.4151121921949876}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 0.3039417263297064}](less[petal width (cm),{'p': 0.48620137931889773}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.4701595512746939}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 0.3443963120594691}](less[sepal width (cm),{'p': 0.2589307051711832}](less[petal length (cm),{'p': 0.8768429441921534}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.4480776939468539}](less[sepal length (cm),{'p': 1.0282671612671113}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.13394010906869971}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.6929859364636688}](less[sepal length (cm),{'p': 0.5665992116138657}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.5917844770759331}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal length (cm),{'p': 0.6317360623635118}](less[sepal length (cm),{'p': 1.4041395996056645}](less[sepal length (cm),{'p': 0.9244177654674688}](less[petal length (cm),{'p': 0.5111674239365536}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.6212859597916861}](nom_class:2, less[sepal length (cm),{'p': 1.0199233391422895}](nom_class:1, nom_class:1))), less[sepal width (cm),{'p': 1.117093595137334}](less[sepal length (cm),{'p': 0.8746952062080438}](nom_class:1, less[petal length (cm),{'p': 0.5638186881437871}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.4871344480709695}](nom_class:2, nom_class:0))), less[sepal width (cm),{'p': 0.20375627484158598}](less[sepal width (cm),{'p': 0.9036850680972428}](less[petal length (cm),{'p': 0.4439257392455599}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.7566468587706547}](nom_class:1, nom_class:0)), less[petal width (cm),{'p': 1.713429035702405}](less[sepal width (cm),{'p': 0.5237638673834615}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.04752452344194033}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.9576280815047074}](less[sepal length (cm),{'p': 0.5667607102660324}](nom_class:2, less[sepal width (cm),{'p': 0.7841812295129417}](less[petal width (cm),{'p': 1.4281249569871988}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': -0.042606235714042595}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': -0.8560706199796406}](less[sepal width (cm),{'p': 0.5404007874146792}](less[petal length (cm),{'p': 0.16924224405437682}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.9136363332781335}](less[sepal length (cm),{'p': 0.5729462947980682}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.16686403502532032}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 1.6738141158759314}](less[sepal width (cm),{'p': 0.8658965438776034}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 1.010397811827291}](nom_class:2, nom_class:2))))</t>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[sepal length (cm),{'p': 4.85}](nom_class:0, less[sepal length (cm),{'p': 4.95}](nom_class:0, less[sepal length (cm),{'p': 5.05}](nom_class:0, less[sepal length (cm),{'p': 5.15}](nom_class:0, less[sepal length (cm),{'p': 5.25}](nom_class:0, nom_class:0))))), less[sepal length (cm),{'p': 6.15}](less[sepal length (cm),{'p': 5.75}](less[sepal length (cm),{'p': 5.55}](nom_class:1, less[sepal length (cm),{'p': 5.65}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 5.85}](nom_class:1, less[sepal length (cm),{'p': 6.05}](nom_class:1, nom_class:1))), less[sepal length (cm),{'p': 7.05}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal length (cm),{'p': 4.75}](less[petal length (cm),{'p': 4.45}](nom_class:1, less[petal length (cm),{'p': 4.55}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 5.05}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.85}](nom_class:1, nom_class:2), nom_class:2), less[petal length (cm),{'p': 5.15}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](less[sepal width (cm),{'p': 2.95}](less[sepal width (cm),{'p': 2.45}](less[sepal width (cm),{'p': 2.25}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 2.8499999999999996}](less[sepal width (cm),{'p': 2.75}](less[sepal width (cm),{'p': 2.55}](nom_class:1, less[sepal width (cm),{'p': 2.6500000000000004}](nom_class:1, nom_class:1)), nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 3.05}](nom_class:2, less[sepal width (cm),{'p': 3.25}](less[sepal width (cm),{'p': 3.1500000000000004}](nom_class:0, nom_class:0), nom_class:2))), less[sepal width (cm),{'p': 3.8499999999999996}](less[sepal width (cm),{'p': 3.75}](less[sepal width (cm),{'p': 3.45}](nom_class:0, less[sepal width (cm),{'p': 3.55}](nom_class:0, nom_class:0)), nom_class:0), nom_class:0))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.85}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:2), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>nom_class:0</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal length (cm),{'p': 4.75}](less[petal length (cm),{'p': 4.45}](nom_class:1, less[petal length (cm),{'p': 4.55}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 5.05}](less[petal length (cm),{'p': 4.95}](less[sepal width (cm),{'p': 3.05}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 5.15}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, less[petal width (cm),{'p': 1.65}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1)))), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.85}](nom_class:2, less[petal length (cm),{'p': 4.95}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.85}](nom_class:2, less[petal width (cm),{'p': 1.95}](nom_class:2, less[petal width (cm),{'p': 2.05}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 2.1500000000000004}](nom_class:2, nom_class:2))))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0.35}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, nom_class:0), nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[petal width (cm),{'p': 0.8}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 0.7}](nom_class:0, less[petal width (cm),{'p': 1.35}](less[petal width (cm),{'p': 1.05}](nom_class:1, less[petal width (cm),{'p': 1.15}](nom_class:1, less[petal width (cm),{'p': 1.25}](less[sepal length (cm),{'p': 5.6}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1)))), less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal width (cm),{'p': 1.05}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.15}](nom_class:1, nom_class:1)), nom_class:1), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:2), nom_class:2), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal width (cm),{'p': 1.05}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal width (cm),{'p': 1.05}](nom_class:1, nom_class:1), nom_class:1), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[sepal length (cm),{'p': 4.45}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[petal width (cm),{'p': 1.55}](nom_class:2, nom_class:1)), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal length (cm),{'p': 6.15}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.85}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal width (cm),{'p': 2.45}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.85}](less[petal width (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0}](nom_class:0, nom_class:2))), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal width (cm),{'p': 2.45}](less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 4.75}](nom_class:1, less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](nom_class:1, less[petal width (cm),{'p': 1.1}](less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](nom_class:1, less[petal width (cm),{'p': 1.1}](less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.8}](nom_class:1, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal length (cm),{'p': 6.15}](less[sepal width (cm),{'p': 2.45}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[sepal length (cm),{'p': 7.1}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](nom_class:1, less[petal width (cm),{'p': 1.1}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal width (cm),{'p': 1.05}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal width (cm),{'p': 1.05}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.85}](nom_class:2, less[petal width (cm),{'p': 1.95}](less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2), nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, less[petal width (cm),{'p': 1.85}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[sepal length (cm),{'p': 4.45}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal length (cm),{'p': 4.75}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, less[petal width (cm),{'p': 1.85}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[petal width (cm),{'p': 1.55}](nom_class:2, nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.85}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:2), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), nom_class:0), less[petal width (cm),{'p': 1.75}](less[sepal length (cm),{'p': 7.1}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](nom_class:1, less[petal width (cm),{'p': 1.1}](nom_class:0, less[petal width (cm),{'p': 1.8}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal width (cm),{'p': 2.45}](less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 2.6}](nom_class:0, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.45}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, less[petal width (cm),{'p': 1.85}](less[sepal length (cm),{'p': 5.95}](nom_class:1, nom_class:2), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, less[petal width (cm),{'p': 1.85}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 2.6500000000000004}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.85}](nom_class:2, less[petal width (cm),{'p': 1.95}](less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2), nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal width (cm),{'p': 1.05}](nom_class:1, less[petal width (cm),{'p': 1.15}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:1)), less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 2.6500000000000004}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](nom_class:1, less[petal width (cm),{'p': 1.1}](nom_class:0, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[petal width (cm),{'p': 0.15000000000000002}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal length (cm),{'p': 4.75}](nom_class:1, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](less[sepal width (cm),{'p': 2.95}](nom_class:1, nom_class:2), nom_class:0)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal length (cm),{'p': 4.75}](less[petal length (cm),{'p': 4.45}](nom_class:1, less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.55}](nom_class:1, nom_class:1), nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.85}](nom_class:2, less[petal width (cm),{'p': 1.95}](less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2), nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal length (cm),{'p': 4.75}](less[petal length (cm),{'p': 4.45}](nom_class:1, less[petal width (cm),{'p': 1.65}](less[sepal length (cm),{'p': 5.5}](nom_class:1, nom_class:1), nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[sepal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal width (cm),{'p': 1.05}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:1)), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](nom_class:1, less[petal width (cm),{'p': 1.1}](less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.8}](nom_class:1, less[petal width (cm),{'p': 2.1}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal width (cm),{'p': 1.65}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:2)), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[sepal length (cm),{'p': 7.1}](less[sepal length (cm),{'p': 4.95}](nom_class:1, less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1)), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 2.6500000000000004}](less[petal width (cm),{'p': 1.35}](nom_class:1, less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), nom_class:1)), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 2.6500000000000004}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[sepal length (cm),{'p': 7.1}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[sepal width (cm),{'p': 2.6500000000000004}](less[petal length (cm),{'p': 5.3}](nom_class:2, nom_class:2), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal length (cm),{'p': 6.15}](nom_class:1, less[petal width (cm),{'p': 1.75}](nom_class:1, less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[petal width (cm),{'p': 0.15000000000000002}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), nom_class:0), less[sepal length (cm),{'p': 6.15}](nom_class:1, less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.85}](nom_class:2, less[petal width (cm),{'p': 1.85}](less[petal length (cm),{'p': 5.0}](nom_class:2, nom_class:2), nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 2.6}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[sepal width (cm),{'p': 2.45}](less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 6.15}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[sepal length (cm),{'p': 4.35}](nom_class:0, less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal length (cm),{'p': 4.75}](nom_class:1, less[petal length (cm),{'p': 5.05}](nom_class:2, less[petal width (cm),{'p': 1.7000000000000002}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, less[petal length (cm),{'p': 4.85}](nom_class:2, less[petal width (cm),{'p': 1.85}](less[petal length (cm),{'p': 5.0}](nom_class:2, nom_class:2), nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](nom_class:0, nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, less[petal length (cm),{'p': 4.85}](nom_class:2, less[petal width (cm),{'p': 1.85}](less[petal length (cm),{'p': 5.0}](nom_class:2, nom_class:2), nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, less[sepal length (cm),{'p': 5.95}](nom_class:2, less[sepal width (cm),{'p': 2.55}](less[petal length (cm),{'p': 5.4}](nom_class:2, nom_class:2), nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:2), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[sepal width (cm),{'p': 2.45}](less[petal width (cm),{'p': 1.4}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[sepal length (cm),{'p': 6.15}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[petal width (cm),{'p': 1.55}](less[petal width (cm),{'p': 1.45}](nom_class:2, nom_class:2), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.55}](nom_class:1, nom_class:1), nom_class:2)), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[sepal length (cm),{'p': 6.15}](less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:2), nom_class:2))</t>
   </si>
 </sst>
 </file>
@@ -518,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.3854545454545454</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -560,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.5177920410783055</v>
+        <v>0.6551992488946584</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -574,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.5323076923076921</v>
+        <v>0.8654097525241266</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -585,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0.3854545454545454</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -599,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0.5323076923076921</v>
+        <v>0.5546324684259031</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -613,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.4331558935361216</v>
+        <v>0.8654097525241266</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -627,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0.6370040195132939</v>
+        <v>0.6551992488946584</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -641,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>0.4025</v>
+        <v>0.5546324684259031</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -655,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>0.7954097525241265</v>
+        <v>0.8654097525241266</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -669,150 +888,150 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0.8015236629472873</v>
+        <v>0.8654097525241266</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>0</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>0.7915236629472873</v>
+        <v>0.6551992488946584</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>0.5323076923076921</v>
+        <v>0.6551992488946584</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>0.7954097525241265</v>
+        <v>0.6551992488946584</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
       <c r="D15">
-        <v>0.5323076923076921</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>0.5623076923076922</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
       <c r="D17">
-        <v>0.8015236629472873</v>
+        <v>0.8654097525241266</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>0.7854097525241265</v>
+        <v>0.6551992488946584</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>0.7715236629472872</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>0.7792900608519268</v>
+        <v>0.5546324684259031</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>0.8015236629472873</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -820,13 +1039,13 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>0.8015236629472873</v>
+        <v>0.9014791987673343</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -834,13 +1053,13 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>0.7315236629472873</v>
+        <v>0.9214791987673343</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -848,13 +1067,13 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>0.7915236629472873</v>
+        <v>0.5354545454545454</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -862,13 +1081,13 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>0.5323076923076921</v>
+        <v>0.5354545454545454</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -876,13 +1095,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>0.3754545454545454</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -890,13 +1109,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>0.4923076923076922</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -904,13 +1123,13 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>0.7792900608519268</v>
+        <v>0.8777138152584508</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -918,13 +1137,13 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>0.7915236629472873</v>
+        <v>0.5354545454545454</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -932,13 +1151,13 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>0.5423076923076922</v>
+        <v>0.9240158503312978</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -946,153 +1165,153 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>0.5223076923076921</v>
+        <v>0.8714791987673344</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>0.5277920410783055</v>
+        <v>0.9014791987673343</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
+        <v>11</v>
+      </c>
+      <c r="B33">
         <v>1</v>
       </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>0.5423076923076922</v>
+        <v>0.8714791987673344</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>0.5106976744186047</v>
+        <v>0.6723076923076922</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>3</v>
       </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
       <c r="D35">
-        <v>0.5177920410783055</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>0.6517414601473543</v>
+        <v>0.8714791987673344</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
       <c r="D37">
-        <v>0.7915236629472873</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>0.7815236629472873</v>
+        <v>0.6723076923076922</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
       <c r="D39">
-        <v>0.5323076923076921</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>3</v>
       </c>
-      <c r="C40" t="s">
-        <v>39</v>
-      </c>
       <c r="D40">
-        <v>0.5323076923076921</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
       <c r="D41">
-        <v>0.8015236629472873</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1100,13 +1319,13 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>0.6417414601473543</v>
+        <v>0.9014791987673343</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1114,13 +1333,13 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>0.7815236629472873</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1128,13 +1347,13 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>0.4677920410783055</v>
+        <v>0.9214791987673343</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1142,13 +1361,13 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>0.7815236629472873</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1156,13 +1375,13 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>0.5223076923076921</v>
+        <v>0.6623076923076922</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1170,13 +1389,13 @@
         <v>5</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>0.8015236629472873</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1184,13 +1403,13 @@
         <v>6</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>0.7815236629472873</v>
+        <v>0.9214791987673343</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1198,13 +1417,13 @@
         <v>7</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D49">
-        <v>0.4977920410783055</v>
+        <v>0.8414791987673343</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1212,13 +1431,13 @@
         <v>8</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>0.8115236629472873</v>
+        <v>0.9114791987673343</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1226,13 +1445,4913 @@
         <v>9</v>
       </c>
       <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>0.8814791987673344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>0.9203748405455794</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>0.8914791987673343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>0.9014791987673343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>17</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>19</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61">
+        <v>0.9014791987673343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64">
+        <v>0.9203902343366999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
         <v>4</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66">
+        <v>0.904025974025974</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69">
+        <v>0.7199999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>11</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
         <v>12</v>
       </c>
-      <c r="D51">
-        <v>0.8015236629472873</v>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74">
+        <v>0.8714791987673344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75">
+        <v>0.8953072625698324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>14</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76">
+        <v>0.6334355199024566</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>16</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>17</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>18</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>19</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81">
+        <v>0.6252204156321045</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89">
+        <v>0.8071337579617834</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93">
+        <v>0.9277138152584508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94">
+        <v>0.6623076923076922</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>13</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>14</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>15</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97">
+        <v>0.9203902343366999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>16</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D98">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>17</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>18</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100">
+        <v>0.6252204156321045</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>19</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>47</v>
+      </c>
+      <c r="D106">
+        <v>0.9040158503312978</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>6</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>9</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>10</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>11</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>12</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>38</v>
+      </c>
+      <c r="D114">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>13</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115">
+        <v>0.9277138152584508</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>14</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>15</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118">
+        <v>0.9014791987673343</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>17</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>18</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>19</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>52</v>
+      </c>
+      <c r="D125">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>4</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>53</v>
+      </c>
+      <c r="D126">
+        <v>0.9014791987673343</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>8</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>55</v>
+      </c>
+      <c r="D130">
+        <v>0.9203902343366999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>9</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>10</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>11</v>
+      </c>
+      <c r="B133">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>12</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>56</v>
+      </c>
+      <c r="D134">
+        <v>0.6623076923076922</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>13</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>14</v>
+      </c>
+      <c r="B136">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>57</v>
+      </c>
+      <c r="D136">
+        <v>0.8690084465662873</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>15</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>16</v>
+      </c>
+      <c r="B138">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>17</v>
+      </c>
+      <c r="B139">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>18</v>
+      </c>
+      <c r="B140">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>19</v>
+      </c>
+      <c r="B141">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141">
+        <v>0.9277138152584508</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>42</v>
+      </c>
+      <c r="D143">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>4</v>
+      </c>
+      <c r="B146">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>58</v>
+      </c>
+      <c r="D147">
+        <v>0.9303902343366998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>7</v>
+      </c>
+      <c r="B149">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>8</v>
+      </c>
+      <c r="B150">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>59</v>
+      </c>
+      <c r="D150">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>9</v>
+      </c>
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>60</v>
+      </c>
+      <c r="D151">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>10</v>
+      </c>
+      <c r="B152">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>11</v>
+      </c>
+      <c r="B153">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>12</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>13</v>
+      </c>
+      <c r="B155">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>14</v>
+      </c>
+      <c r="B156">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>15</v>
+      </c>
+      <c r="B157">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>61</v>
+      </c>
+      <c r="D157">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>16</v>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>17</v>
+      </c>
+      <c r="B159">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>18</v>
+      </c>
+      <c r="B160">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>59</v>
+      </c>
+      <c r="D160">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>19</v>
+      </c>
+      <c r="B161">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>62</v>
+      </c>
+      <c r="D161">
+        <v>0.9077138152584507</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>54</v>
+      </c>
+      <c r="D162">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>59</v>
+      </c>
+      <c r="D163">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164">
+        <v>0.6252204156321045</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>3</v>
+      </c>
+      <c r="B165">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>5</v>
+      </c>
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>64</v>
+      </c>
+      <c r="D167">
+        <v>0.7126917393009019</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>6</v>
+      </c>
+      <c r="B168">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>7</v>
+      </c>
+      <c r="B169">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>8</v>
+      </c>
+      <c r="B170">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>33</v>
+      </c>
+      <c r="D170">
+        <v>0.6334355199024566</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>9</v>
+      </c>
+      <c r="B171">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>10</v>
+      </c>
+      <c r="B172">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>11</v>
+      </c>
+      <c r="B173">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>65</v>
+      </c>
+      <c r="D173">
+        <v>0.8855481015927038</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>12</v>
+      </c>
+      <c r="B174">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>13</v>
+      </c>
+      <c r="B175">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>14</v>
+      </c>
+      <c r="B176">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>15</v>
+      </c>
+      <c r="B177">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>16</v>
+      </c>
+      <c r="B178">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>17</v>
+      </c>
+      <c r="B179">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>52</v>
+      </c>
+      <c r="D179">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>18</v>
+      </c>
+      <c r="B180">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>56</v>
+      </c>
+      <c r="D180">
+        <v>0.6623076923076922</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>19</v>
+      </c>
+      <c r="B181">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>9</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>9</v>
+      </c>
+      <c r="C183" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>2</v>
+      </c>
+      <c r="B184">
+        <v>9</v>
+      </c>
+      <c r="C184" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>3</v>
+      </c>
+      <c r="B185">
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
+        <v>66</v>
+      </c>
+      <c r="D185">
+        <v>0.7099999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>67</v>
+      </c>
+      <c r="D186">
+        <v>0.9040158503312978</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>5</v>
+      </c>
+      <c r="B187">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>6</v>
+      </c>
+      <c r="B188">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>54</v>
+      </c>
+      <c r="D188">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>7</v>
+      </c>
+      <c r="B189">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>8</v>
+      </c>
+      <c r="B190">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>20</v>
+      </c>
+      <c r="D190">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>9</v>
+      </c>
+      <c r="B191">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191">
+        <v>0.9114048629872636</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>10</v>
+      </c>
+      <c r="B192">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>69</v>
+      </c>
+      <c r="D192">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>11</v>
+      </c>
+      <c r="B193">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>70</v>
+      </c>
+      <c r="D193">
+        <v>0.9203902343366999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>12</v>
+      </c>
+      <c r="B194">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>20</v>
+      </c>
+      <c r="D194">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>13</v>
+      </c>
+      <c r="B195">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>54</v>
+      </c>
+      <c r="D195">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>14</v>
+      </c>
+      <c r="B196">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>71</v>
+      </c>
+      <c r="D196">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>15</v>
+      </c>
+      <c r="B197">
+        <v>9</v>
+      </c>
+      <c r="C197" t="s">
+        <v>72</v>
+      </c>
+      <c r="D197">
+        <v>0.8490084465662873</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>16</v>
+      </c>
+      <c r="B198">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>17</v>
+      </c>
+      <c r="B199">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>18</v>
+      </c>
+      <c r="B200">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>19</v>
+      </c>
+      <c r="B201">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>73</v>
+      </c>
+      <c r="D201">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>10</v>
+      </c>
+      <c r="C202" t="s">
+        <v>74</v>
+      </c>
+      <c r="D202">
+        <v>0.9203902343366999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>10</v>
+      </c>
+      <c r="C203" t="s">
+        <v>69</v>
+      </c>
+      <c r="D203">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>2</v>
+      </c>
+      <c r="B204">
+        <v>10</v>
+      </c>
+      <c r="C204" t="s">
+        <v>20</v>
+      </c>
+      <c r="D204">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>3</v>
+      </c>
+      <c r="B205">
+        <v>10</v>
+      </c>
+      <c r="C205" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>10</v>
+      </c>
+      <c r="C206" t="s">
+        <v>65</v>
+      </c>
+      <c r="D206">
+        <v>0.8855481015927038</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>5</v>
+      </c>
+      <c r="B207">
+        <v>10</v>
+      </c>
+      <c r="C207" t="s">
+        <v>70</v>
+      </c>
+      <c r="D207">
+        <v>0.9203902343366999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>6</v>
+      </c>
+      <c r="B208">
+        <v>10</v>
+      </c>
+      <c r="C208" t="s">
+        <v>69</v>
+      </c>
+      <c r="D208">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>7</v>
+      </c>
+      <c r="B209">
+        <v>10</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>8</v>
+      </c>
+      <c r="B210">
+        <v>10</v>
+      </c>
+      <c r="C210" t="s">
+        <v>20</v>
+      </c>
+      <c r="D210">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>9</v>
+      </c>
+      <c r="B211">
+        <v>10</v>
+      </c>
+      <c r="C211" t="s">
+        <v>20</v>
+      </c>
+      <c r="D211">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>10</v>
+      </c>
+      <c r="B212">
+        <v>10</v>
+      </c>
+      <c r="C212" t="s">
+        <v>20</v>
+      </c>
+      <c r="D212">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>11</v>
+      </c>
+      <c r="B213">
+        <v>10</v>
+      </c>
+      <c r="C213" t="s">
+        <v>75</v>
+      </c>
+      <c r="D213">
+        <v>0.8914791987673343</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>12</v>
+      </c>
+      <c r="B214">
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>13</v>
+      </c>
+      <c r="B215">
+        <v>10</v>
+      </c>
+      <c r="C215" t="s">
+        <v>76</v>
+      </c>
+      <c r="D215">
+        <v>0.8903902343366998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>14</v>
+      </c>
+      <c r="B216">
+        <v>10</v>
+      </c>
+      <c r="C216" t="s">
+        <v>20</v>
+      </c>
+      <c r="D216">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>15</v>
+      </c>
+      <c r="B217">
+        <v>10</v>
+      </c>
+      <c r="C217" t="s">
+        <v>20</v>
+      </c>
+      <c r="D217">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>16</v>
+      </c>
+      <c r="B218">
+        <v>10</v>
+      </c>
+      <c r="C218" t="s">
+        <v>15</v>
+      </c>
+      <c r="D218">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>17</v>
+      </c>
+      <c r="B219">
+        <v>10</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>18</v>
+      </c>
+      <c r="B220">
+        <v>10</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>19</v>
+      </c>
+      <c r="B221">
+        <v>10</v>
+      </c>
+      <c r="C221" t="s">
+        <v>69</v>
+      </c>
+      <c r="D221">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>0</v>
+      </c>
+      <c r="B222">
+        <v>11</v>
+      </c>
+      <c r="C222" t="s">
+        <v>38</v>
+      </c>
+      <c r="D222">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <v>11</v>
+      </c>
+      <c r="C223" t="s">
+        <v>69</v>
+      </c>
+      <c r="D223">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>2</v>
+      </c>
+      <c r="B224">
+        <v>11</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>3</v>
+      </c>
+      <c r="B225">
+        <v>11</v>
+      </c>
+      <c r="C225" t="s">
+        <v>20</v>
+      </c>
+      <c r="D225">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>4</v>
+      </c>
+      <c r="B226">
+        <v>11</v>
+      </c>
+      <c r="C226" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>5</v>
+      </c>
+      <c r="B227">
+        <v>11</v>
+      </c>
+      <c r="C227" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>6</v>
+      </c>
+      <c r="B228">
+        <v>11</v>
+      </c>
+      <c r="C228" t="s">
+        <v>77</v>
+      </c>
+      <c r="D228">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>7</v>
+      </c>
+      <c r="B229">
+        <v>11</v>
+      </c>
+      <c r="C229" t="s">
+        <v>20</v>
+      </c>
+      <c r="D229">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>8</v>
+      </c>
+      <c r="B230">
+        <v>11</v>
+      </c>
+      <c r="C230" t="s">
+        <v>69</v>
+      </c>
+      <c r="D230">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>9</v>
+      </c>
+      <c r="B231">
+        <v>11</v>
+      </c>
+      <c r="C231" t="s">
+        <v>15</v>
+      </c>
+      <c r="D231">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>10</v>
+      </c>
+      <c r="B232">
+        <v>11</v>
+      </c>
+      <c r="C232" t="s">
+        <v>59</v>
+      </c>
+      <c r="D232">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>11</v>
+      </c>
+      <c r="B233">
+        <v>11</v>
+      </c>
+      <c r="C233" t="s">
+        <v>61</v>
+      </c>
+      <c r="D233">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>12</v>
+      </c>
+      <c r="B234">
+        <v>11</v>
+      </c>
+      <c r="C234" t="s">
+        <v>38</v>
+      </c>
+      <c r="D234">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>13</v>
+      </c>
+      <c r="B235">
+        <v>11</v>
+      </c>
+      <c r="C235" t="s">
+        <v>69</v>
+      </c>
+      <c r="D235">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>14</v>
+      </c>
+      <c r="B236">
+        <v>11</v>
+      </c>
+      <c r="C236" t="s">
+        <v>69</v>
+      </c>
+      <c r="D236">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>15</v>
+      </c>
+      <c r="B237">
+        <v>11</v>
+      </c>
+      <c r="C237" t="s">
+        <v>20</v>
+      </c>
+      <c r="D237">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>16</v>
+      </c>
+      <c r="B238">
+        <v>11</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>17</v>
+      </c>
+      <c r="B239">
+        <v>11</v>
+      </c>
+      <c r="C239" t="s">
+        <v>54</v>
+      </c>
+      <c r="D239">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>18</v>
+      </c>
+      <c r="B240">
+        <v>11</v>
+      </c>
+      <c r="C240" t="s">
+        <v>78</v>
+      </c>
+      <c r="D240">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>19</v>
+      </c>
+      <c r="B241">
+        <v>11</v>
+      </c>
+      <c r="C241" t="s">
+        <v>69</v>
+      </c>
+      <c r="D241">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s">
+        <v>41</v>
+      </c>
+      <c r="D242">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>12</v>
+      </c>
+      <c r="C243" t="s">
+        <v>79</v>
+      </c>
+      <c r="D243">
+        <v>0.6434355199024566</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
+        <v>2</v>
+      </c>
+      <c r="B244">
+        <v>12</v>
+      </c>
+      <c r="C244" t="s">
+        <v>80</v>
+      </c>
+      <c r="D244">
+        <v>0.9040158503312978</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>3</v>
+      </c>
+      <c r="B245">
+        <v>12</v>
+      </c>
+      <c r="C245" t="s">
+        <v>20</v>
+      </c>
+      <c r="D245">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>4</v>
+      </c>
+      <c r="B246">
+        <v>12</v>
+      </c>
+      <c r="C246" t="s">
+        <v>81</v>
+      </c>
+      <c r="D246">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
+        <v>5</v>
+      </c>
+      <c r="B247">
+        <v>12</v>
+      </c>
+      <c r="C247" t="s">
+        <v>69</v>
+      </c>
+      <c r="D247">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
+        <v>6</v>
+      </c>
+      <c r="B248">
+        <v>12</v>
+      </c>
+      <c r="C248" t="s">
+        <v>69</v>
+      </c>
+      <c r="D248">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>7</v>
+      </c>
+      <c r="B249">
+        <v>12</v>
+      </c>
+      <c r="C249" t="s">
+        <v>82</v>
+      </c>
+      <c r="D249">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
+        <v>8</v>
+      </c>
+      <c r="B250">
+        <v>12</v>
+      </c>
+      <c r="C250" t="s">
+        <v>69</v>
+      </c>
+      <c r="D250">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
+        <v>9</v>
+      </c>
+      <c r="B251">
+        <v>12</v>
+      </c>
+      <c r="C251" t="s">
+        <v>83</v>
+      </c>
+      <c r="D251">
+        <v>0.6844537615557494</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>10</v>
+      </c>
+      <c r="B252">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>84</v>
+      </c>
+      <c r="D252">
+        <v>0.9014048629872637</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
+        <v>11</v>
+      </c>
+      <c r="B253">
+        <v>12</v>
+      </c>
+      <c r="C253" t="s">
+        <v>69</v>
+      </c>
+      <c r="D253">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
+        <v>12</v>
+      </c>
+      <c r="B254">
+        <v>12</v>
+      </c>
+      <c r="C254" t="s">
+        <v>20</v>
+      </c>
+      <c r="D254">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
+        <v>13</v>
+      </c>
+      <c r="B255">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>41</v>
+      </c>
+      <c r="D255">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
+        <v>14</v>
+      </c>
+      <c r="B256">
+        <v>12</v>
+      </c>
+      <c r="C256" t="s">
+        <v>20</v>
+      </c>
+      <c r="D256">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>15</v>
+      </c>
+      <c r="B257">
+        <v>12</v>
+      </c>
+      <c r="C257" t="s">
+        <v>69</v>
+      </c>
+      <c r="D257">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>16</v>
+      </c>
+      <c r="B258">
+        <v>12</v>
+      </c>
+      <c r="C258" t="s">
+        <v>67</v>
+      </c>
+      <c r="D258">
+        <v>0.9040158503312978</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>17</v>
+      </c>
+      <c r="B259">
+        <v>12</v>
+      </c>
+      <c r="C259" t="s">
+        <v>85</v>
+      </c>
+      <c r="D259">
+        <v>0.9040158503312978</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>18</v>
+      </c>
+      <c r="B260">
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>86</v>
+      </c>
+      <c r="D260">
+        <v>0.9014048629872637</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>19</v>
+      </c>
+      <c r="B261">
+        <v>12</v>
+      </c>
+      <c r="C261" t="s">
+        <v>20</v>
+      </c>
+      <c r="D261">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>13</v>
+      </c>
+      <c r="C262" t="s">
+        <v>20</v>
+      </c>
+      <c r="D262">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>13</v>
+      </c>
+      <c r="C263" t="s">
+        <v>20</v>
+      </c>
+      <c r="D263">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>2</v>
+      </c>
+      <c r="B264">
+        <v>13</v>
+      </c>
+      <c r="C264" t="s">
+        <v>20</v>
+      </c>
+      <c r="D264">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>3</v>
+      </c>
+      <c r="B265">
+        <v>13</v>
+      </c>
+      <c r="C265" t="s">
+        <v>60</v>
+      </c>
+      <c r="D265">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>4</v>
+      </c>
+      <c r="B266">
+        <v>13</v>
+      </c>
+      <c r="C266" t="s">
+        <v>71</v>
+      </c>
+      <c r="D266">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>5</v>
+      </c>
+      <c r="B267">
+        <v>13</v>
+      </c>
+      <c r="C267" t="s">
+        <v>69</v>
+      </c>
+      <c r="D267">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>6</v>
+      </c>
+      <c r="B268">
+        <v>13</v>
+      </c>
+      <c r="C268" t="s">
+        <v>41</v>
+      </c>
+      <c r="D268">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>7</v>
+      </c>
+      <c r="B269">
+        <v>13</v>
+      </c>
+      <c r="C269" t="s">
+        <v>71</v>
+      </c>
+      <c r="D269">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>8</v>
+      </c>
+      <c r="B270">
+        <v>13</v>
+      </c>
+      <c r="C270" t="s">
+        <v>87</v>
+      </c>
+      <c r="D270">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>9</v>
+      </c>
+      <c r="B271">
+        <v>13</v>
+      </c>
+      <c r="C271" t="s">
+        <v>20</v>
+      </c>
+      <c r="D271">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>10</v>
+      </c>
+      <c r="B272">
+        <v>13</v>
+      </c>
+      <c r="C272" t="s">
+        <v>87</v>
+      </c>
+      <c r="D272">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>11</v>
+      </c>
+      <c r="B273">
+        <v>13</v>
+      </c>
+      <c r="C273" t="s">
+        <v>88</v>
+      </c>
+      <c r="D273">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>12</v>
+      </c>
+      <c r="B274">
+        <v>13</v>
+      </c>
+      <c r="C274" t="s">
+        <v>89</v>
+      </c>
+      <c r="D274">
+        <v>0.8914791987673343</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>13</v>
+      </c>
+      <c r="B275">
+        <v>13</v>
+      </c>
+      <c r="C275" t="s">
+        <v>20</v>
+      </c>
+      <c r="D275">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>14</v>
+      </c>
+      <c r="B276">
+        <v>13</v>
+      </c>
+      <c r="C276" t="s">
+        <v>9</v>
+      </c>
+      <c r="D276">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>15</v>
+      </c>
+      <c r="B277">
+        <v>13</v>
+      </c>
+      <c r="C277" t="s">
+        <v>65</v>
+      </c>
+      <c r="D277">
+        <v>0.8855481015927038</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>16</v>
+      </c>
+      <c r="B278">
+        <v>13</v>
+      </c>
+      <c r="C278" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>17</v>
+      </c>
+      <c r="B279">
+        <v>13</v>
+      </c>
+      <c r="C279" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>18</v>
+      </c>
+      <c r="B280">
+        <v>13</v>
+      </c>
+      <c r="C280" t="s">
+        <v>90</v>
+      </c>
+      <c r="D280">
+        <v>0.6052204156321046</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>19</v>
+      </c>
+      <c r="B281">
+        <v>13</v>
+      </c>
+      <c r="C281" t="s">
+        <v>69</v>
+      </c>
+      <c r="D281">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>14</v>
+      </c>
+      <c r="C282" t="s">
+        <v>69</v>
+      </c>
+      <c r="D282">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <v>14</v>
+      </c>
+      <c r="C283" t="s">
+        <v>91</v>
+      </c>
+      <c r="D283">
+        <v>0.9103748405455794</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>2</v>
+      </c>
+      <c r="B284">
+        <v>14</v>
+      </c>
+      <c r="C284" t="s">
+        <v>92</v>
+      </c>
+      <c r="D284">
+        <v>0.8977138152584507</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>3</v>
+      </c>
+      <c r="B285">
+        <v>14</v>
+      </c>
+      <c r="C285" t="s">
+        <v>93</v>
+      </c>
+      <c r="D285">
+        <v>0.8977138152584507</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>4</v>
+      </c>
+      <c r="B286">
+        <v>14</v>
+      </c>
+      <c r="C286" t="s">
+        <v>20</v>
+      </c>
+      <c r="D286">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>5</v>
+      </c>
+      <c r="B287">
+        <v>14</v>
+      </c>
+      <c r="C287" t="s">
+        <v>20</v>
+      </c>
+      <c r="D287">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>6</v>
+      </c>
+      <c r="B288">
+        <v>14</v>
+      </c>
+      <c r="C288" t="s">
+        <v>20</v>
+      </c>
+      <c r="D288">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>7</v>
+      </c>
+      <c r="B289">
+        <v>14</v>
+      </c>
+      <c r="C289" t="s">
+        <v>94</v>
+      </c>
+      <c r="D289">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>8</v>
+      </c>
+      <c r="B290">
+        <v>14</v>
+      </c>
+      <c r="C290" t="s">
+        <v>20</v>
+      </c>
+      <c r="D290">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>9</v>
+      </c>
+      <c r="B291">
+        <v>14</v>
+      </c>
+      <c r="C291" t="s">
+        <v>41</v>
+      </c>
+      <c r="D291">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>10</v>
+      </c>
+      <c r="B292">
+        <v>14</v>
+      </c>
+      <c r="C292" t="s">
+        <v>9</v>
+      </c>
+      <c r="D292">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>11</v>
+      </c>
+      <c r="B293">
+        <v>14</v>
+      </c>
+      <c r="C293" t="s">
+        <v>87</v>
+      </c>
+      <c r="D293">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>12</v>
+      </c>
+      <c r="B294">
+        <v>14</v>
+      </c>
+      <c r="C294" t="s">
+        <v>95</v>
+      </c>
+      <c r="D294">
+        <v>0.9277138152584508</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>13</v>
+      </c>
+      <c r="B295">
+        <v>14</v>
+      </c>
+      <c r="C295" t="s">
+        <v>53</v>
+      </c>
+      <c r="D295">
+        <v>0.9014791987673343</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>14</v>
+      </c>
+      <c r="B296">
+        <v>14</v>
+      </c>
+      <c r="C296" t="s">
+        <v>96</v>
+      </c>
+      <c r="D296">
+        <v>0.9253072625698324</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>15</v>
+      </c>
+      <c r="B297">
+        <v>14</v>
+      </c>
+      <c r="C297" t="s">
+        <v>69</v>
+      </c>
+      <c r="D297">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>16</v>
+      </c>
+      <c r="B298">
+        <v>14</v>
+      </c>
+      <c r="C298" t="s">
+        <v>20</v>
+      </c>
+      <c r="D298">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>17</v>
+      </c>
+      <c r="B299">
+        <v>14</v>
+      </c>
+      <c r="C299" t="s">
+        <v>20</v>
+      </c>
+      <c r="D299">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>18</v>
+      </c>
+      <c r="B300">
+        <v>14</v>
+      </c>
+      <c r="C300" t="s">
+        <v>9</v>
+      </c>
+      <c r="D300">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>19</v>
+      </c>
+      <c r="B301">
+        <v>14</v>
+      </c>
+      <c r="C301" t="s">
+        <v>41</v>
+      </c>
+      <c r="D301">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
+        <v>0</v>
+      </c>
+      <c r="B302">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>30</v>
+      </c>
+      <c r="D302">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
+        <v>1</v>
+      </c>
+      <c r="B303">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>97</v>
+      </c>
+      <c r="D303">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
+        <v>2</v>
+      </c>
+      <c r="B304">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>71</v>
+      </c>
+      <c r="D304">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>3</v>
+      </c>
+      <c r="B305">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>69</v>
+      </c>
+      <c r="D305">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>4</v>
+      </c>
+      <c r="B306">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>73</v>
+      </c>
+      <c r="D306">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>5</v>
+      </c>
+      <c r="B307">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>69</v>
+      </c>
+      <c r="D307">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>6</v>
+      </c>
+      <c r="B308">
+        <v>15</v>
+      </c>
+      <c r="C308" t="s">
+        <v>96</v>
+      </c>
+      <c r="D308">
+        <v>0.9253072625698324</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>7</v>
+      </c>
+      <c r="B309">
+        <v>15</v>
+      </c>
+      <c r="C309" t="s">
+        <v>20</v>
+      </c>
+      <c r="D309">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1">
+        <v>8</v>
+      </c>
+      <c r="B310">
+        <v>15</v>
+      </c>
+      <c r="C310" t="s">
+        <v>91</v>
+      </c>
+      <c r="D310">
+        <v>0.9103748405455794</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1">
+        <v>9</v>
+      </c>
+      <c r="B311">
+        <v>15</v>
+      </c>
+      <c r="C311" t="s">
+        <v>28</v>
+      </c>
+      <c r="D311">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>10</v>
+      </c>
+      <c r="B312">
+        <v>15</v>
+      </c>
+      <c r="C312" t="s">
+        <v>65</v>
+      </c>
+      <c r="D312">
+        <v>0.8855481015927038</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>11</v>
+      </c>
+      <c r="B313">
+        <v>15</v>
+      </c>
+      <c r="C313" t="s">
+        <v>38</v>
+      </c>
+      <c r="D313">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>12</v>
+      </c>
+      <c r="B314">
+        <v>15</v>
+      </c>
+      <c r="C314" t="s">
+        <v>98</v>
+      </c>
+      <c r="D314">
+        <v>0.9014791987673343</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>13</v>
+      </c>
+      <c r="B315">
+        <v>15</v>
+      </c>
+      <c r="C315" t="s">
+        <v>56</v>
+      </c>
+      <c r="D315">
+        <v>0.6623076923076922</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1">
+        <v>14</v>
+      </c>
+      <c r="B316">
+        <v>15</v>
+      </c>
+      <c r="C316" t="s">
+        <v>81</v>
+      </c>
+      <c r="D316">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>15</v>
+      </c>
+      <c r="B317">
+        <v>15</v>
+      </c>
+      <c r="C317" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>16</v>
+      </c>
+      <c r="B318">
+        <v>15</v>
+      </c>
+      <c r="C318" t="s">
+        <v>28</v>
+      </c>
+      <c r="D318">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>17</v>
+      </c>
+      <c r="B319">
+        <v>15</v>
+      </c>
+      <c r="C319" t="s">
+        <v>99</v>
+      </c>
+      <c r="D319">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>18</v>
+      </c>
+      <c r="B320">
+        <v>15</v>
+      </c>
+      <c r="C320" t="s">
+        <v>9</v>
+      </c>
+      <c r="D320">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>19</v>
+      </c>
+      <c r="B321">
+        <v>15</v>
+      </c>
+      <c r="C321" t="s">
+        <v>28</v>
+      </c>
+      <c r="D321">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>0</v>
+      </c>
+      <c r="B322">
+        <v>16</v>
+      </c>
+      <c r="C322" t="s">
+        <v>71</v>
+      </c>
+      <c r="D322">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>1</v>
+      </c>
+      <c r="B323">
+        <v>16</v>
+      </c>
+      <c r="C323" t="s">
+        <v>9</v>
+      </c>
+      <c r="D323">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>2</v>
+      </c>
+      <c r="B324">
+        <v>16</v>
+      </c>
+      <c r="C324" t="s">
+        <v>9</v>
+      </c>
+      <c r="D324">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>3</v>
+      </c>
+      <c r="B325">
+        <v>16</v>
+      </c>
+      <c r="C325" t="s">
+        <v>100</v>
+      </c>
+      <c r="D325">
+        <v>0.8689854485401801</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>4</v>
+      </c>
+      <c r="B326">
+        <v>16</v>
+      </c>
+      <c r="C326" t="s">
+        <v>28</v>
+      </c>
+      <c r="D326">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>5</v>
+      </c>
+      <c r="B327">
+        <v>16</v>
+      </c>
+      <c r="C327" t="s">
+        <v>69</v>
+      </c>
+      <c r="D327">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>6</v>
+      </c>
+      <c r="B328">
+        <v>16</v>
+      </c>
+      <c r="C328" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>7</v>
+      </c>
+      <c r="B329">
+        <v>16</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>8</v>
+      </c>
+      <c r="B330">
+        <v>16</v>
+      </c>
+      <c r="C330" t="s">
+        <v>15</v>
+      </c>
+      <c r="D330">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>9</v>
+      </c>
+      <c r="B331">
+        <v>16</v>
+      </c>
+      <c r="C331" t="s">
+        <v>101</v>
+      </c>
+      <c r="D331">
+        <v>0.8589854485401802</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>10</v>
+      </c>
+      <c r="B332">
+        <v>16</v>
+      </c>
+      <c r="C332" t="s">
+        <v>102</v>
+      </c>
+      <c r="D332">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>11</v>
+      </c>
+      <c r="B333">
+        <v>16</v>
+      </c>
+      <c r="C333" t="s">
+        <v>103</v>
+      </c>
+      <c r="D333">
+        <v>0.8914791987673343</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>12</v>
+      </c>
+      <c r="B334">
+        <v>16</v>
+      </c>
+      <c r="C334" t="s">
+        <v>104</v>
+      </c>
+      <c r="D334">
+        <v>0.8755481015927038</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>13</v>
+      </c>
+      <c r="B335">
+        <v>16</v>
+      </c>
+      <c r="C335" t="s">
+        <v>28</v>
+      </c>
+      <c r="D335">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>14</v>
+      </c>
+      <c r="B336">
+        <v>16</v>
+      </c>
+      <c r="C336" t="s">
+        <v>73</v>
+      </c>
+      <c r="D336">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1">
+        <v>15</v>
+      </c>
+      <c r="B337">
+        <v>16</v>
+      </c>
+      <c r="C337" t="s">
+        <v>69</v>
+      </c>
+      <c r="D337">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1">
+        <v>16</v>
+      </c>
+      <c r="B338">
+        <v>16</v>
+      </c>
+      <c r="C338" t="s">
+        <v>28</v>
+      </c>
+      <c r="D338">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1">
+        <v>17</v>
+      </c>
+      <c r="B339">
+        <v>16</v>
+      </c>
+      <c r="C339" t="s">
+        <v>105</v>
+      </c>
+      <c r="D339">
+        <v>0.9053072625698324</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1">
+        <v>18</v>
+      </c>
+      <c r="B340">
+        <v>16</v>
+      </c>
+      <c r="C340" t="s">
+        <v>15</v>
+      </c>
+      <c r="D340">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1">
+        <v>19</v>
+      </c>
+      <c r="B341">
+        <v>16</v>
+      </c>
+      <c r="C341" t="s">
+        <v>41</v>
+      </c>
+      <c r="D341">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1">
+        <v>0</v>
+      </c>
+      <c r="B342">
+        <v>17</v>
+      </c>
+      <c r="C342" t="s">
+        <v>41</v>
+      </c>
+      <c r="D342">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1">
+        <v>1</v>
+      </c>
+      <c r="B343">
+        <v>17</v>
+      </c>
+      <c r="C343" t="s">
+        <v>99</v>
+      </c>
+      <c r="D343">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1">
+        <v>2</v>
+      </c>
+      <c r="B344">
+        <v>17</v>
+      </c>
+      <c r="C344" t="s">
+        <v>52</v>
+      </c>
+      <c r="D344">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1">
+        <v>3</v>
+      </c>
+      <c r="B345">
+        <v>17</v>
+      </c>
+      <c r="C345" t="s">
+        <v>106</v>
+      </c>
+      <c r="D345">
+        <v>0.8071337579617834</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1">
+        <v>4</v>
+      </c>
+      <c r="B346">
+        <v>17</v>
+      </c>
+      <c r="C346" t="s">
+        <v>94</v>
+      </c>
+      <c r="D346">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1">
+        <v>5</v>
+      </c>
+      <c r="B347">
+        <v>17</v>
+      </c>
+      <c r="C347" t="s">
+        <v>81</v>
+      </c>
+      <c r="D347">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1">
+        <v>6</v>
+      </c>
+      <c r="B348">
+        <v>17</v>
+      </c>
+      <c r="C348" t="s">
+        <v>9</v>
+      </c>
+      <c r="D348">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1">
+        <v>7</v>
+      </c>
+      <c r="B349">
+        <v>17</v>
+      </c>
+      <c r="C349" t="s">
+        <v>107</v>
+      </c>
+      <c r="D349">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1">
+        <v>8</v>
+      </c>
+      <c r="B350">
+        <v>17</v>
+      </c>
+      <c r="C350" t="s">
+        <v>9</v>
+      </c>
+      <c r="D350">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1">
+        <v>9</v>
+      </c>
+      <c r="B351">
+        <v>17</v>
+      </c>
+      <c r="C351" t="s">
+        <v>108</v>
+      </c>
+      <c r="D351">
+        <v>0.9140158503312978</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1">
+        <v>10</v>
+      </c>
+      <c r="B352">
+        <v>17</v>
+      </c>
+      <c r="C352" t="s">
+        <v>109</v>
+      </c>
+      <c r="D352">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1">
+        <v>11</v>
+      </c>
+      <c r="B353">
+        <v>17</v>
+      </c>
+      <c r="C353" t="s">
+        <v>110</v>
+      </c>
+      <c r="D353">
+        <v>0.9053072625698324</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1">
+        <v>12</v>
+      </c>
+      <c r="B354">
+        <v>17</v>
+      </c>
+      <c r="C354" t="s">
+        <v>33</v>
+      </c>
+      <c r="D354">
+        <v>0.6334355199024566</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1">
+        <v>13</v>
+      </c>
+      <c r="B355">
+        <v>17</v>
+      </c>
+      <c r="C355" t="s">
+        <v>94</v>
+      </c>
+      <c r="D355">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1">
+        <v>14</v>
+      </c>
+      <c r="B356">
+        <v>17</v>
+      </c>
+      <c r="C356" t="s">
+        <v>9</v>
+      </c>
+      <c r="D356">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>15</v>
+      </c>
+      <c r="B357">
+        <v>17</v>
+      </c>
+      <c r="C357" t="s">
+        <v>111</v>
+      </c>
+      <c r="D357">
+        <v>0.9014791987673343</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1">
+        <v>16</v>
+      </c>
+      <c r="B358">
+        <v>17</v>
+      </c>
+      <c r="C358" t="s">
+        <v>69</v>
+      </c>
+      <c r="D358">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1">
+        <v>17</v>
+      </c>
+      <c r="B359">
+        <v>17</v>
+      </c>
+      <c r="C359" t="s">
+        <v>69</v>
+      </c>
+      <c r="D359">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>18</v>
+      </c>
+      <c r="B360">
+        <v>17</v>
+      </c>
+      <c r="C360" t="s">
+        <v>28</v>
+      </c>
+      <c r="D360">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>19</v>
+      </c>
+      <c r="B361">
+        <v>17</v>
+      </c>
+      <c r="C361" t="s">
+        <v>69</v>
+      </c>
+      <c r="D361">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1">
+        <v>0</v>
+      </c>
+      <c r="B362">
+        <v>18</v>
+      </c>
+      <c r="C362" t="s">
+        <v>69</v>
+      </c>
+      <c r="D362">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>1</v>
+      </c>
+      <c r="B363">
+        <v>18</v>
+      </c>
+      <c r="C363" t="s">
+        <v>71</v>
+      </c>
+      <c r="D363">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>2</v>
+      </c>
+      <c r="B364">
+        <v>18</v>
+      </c>
+      <c r="C364" t="s">
+        <v>112</v>
+      </c>
+      <c r="D364">
+        <v>0.6533273862622658</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1">
+        <v>3</v>
+      </c>
+      <c r="B365">
+        <v>18</v>
+      </c>
+      <c r="C365" t="s">
+        <v>107</v>
+      </c>
+      <c r="D365">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>4</v>
+      </c>
+      <c r="B366">
+        <v>18</v>
+      </c>
+      <c r="C366" t="s">
+        <v>113</v>
+      </c>
+      <c r="D366">
+        <v>0.9014791987673343</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>5</v>
+      </c>
+      <c r="B367">
+        <v>18</v>
+      </c>
+      <c r="C367" t="s">
+        <v>99</v>
+      </c>
+      <c r="D367">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>6</v>
+      </c>
+      <c r="B368">
+        <v>18</v>
+      </c>
+      <c r="C368" t="s">
+        <v>28</v>
+      </c>
+      <c r="D368">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>7</v>
+      </c>
+      <c r="B369">
+        <v>18</v>
+      </c>
+      <c r="C369" t="s">
+        <v>20</v>
+      </c>
+      <c r="D369">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>8</v>
+      </c>
+      <c r="B370">
+        <v>18</v>
+      </c>
+      <c r="C370" t="s">
+        <v>109</v>
+      </c>
+      <c r="D370">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>9</v>
+      </c>
+      <c r="B371">
+        <v>18</v>
+      </c>
+      <c r="C371" t="s">
+        <v>9</v>
+      </c>
+      <c r="D371">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>10</v>
+      </c>
+      <c r="B372">
+        <v>18</v>
+      </c>
+      <c r="C372" t="s">
+        <v>114</v>
+      </c>
+      <c r="D372">
+        <v>0.9014791987673343</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>11</v>
+      </c>
+      <c r="B373">
+        <v>18</v>
+      </c>
+      <c r="C373" t="s">
+        <v>115</v>
+      </c>
+      <c r="D373">
+        <v>0.9203748405455794</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>12</v>
+      </c>
+      <c r="B374">
+        <v>18</v>
+      </c>
+      <c r="C374" t="s">
+        <v>116</v>
+      </c>
+      <c r="D374">
+        <v>0.7099999999999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>13</v>
+      </c>
+      <c r="B375">
+        <v>18</v>
+      </c>
+      <c r="C375" t="s">
+        <v>117</v>
+      </c>
+      <c r="D375">
+        <v>0.8171337579617834</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>14</v>
+      </c>
+      <c r="B376">
+        <v>18</v>
+      </c>
+      <c r="C376" t="s">
+        <v>69</v>
+      </c>
+      <c r="D376">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>15</v>
+      </c>
+      <c r="B377">
+        <v>18</v>
+      </c>
+      <c r="C377" t="s">
+        <v>107</v>
+      </c>
+      <c r="D377">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>16</v>
+      </c>
+      <c r="B378">
+        <v>18</v>
+      </c>
+      <c r="C378" t="s">
+        <v>69</v>
+      </c>
+      <c r="D378">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>17</v>
+      </c>
+      <c r="B379">
+        <v>18</v>
+      </c>
+      <c r="C379" t="s">
+        <v>118</v>
+      </c>
+      <c r="D379">
+        <v>0.9114791987673343</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>18</v>
+      </c>
+      <c r="B380">
+        <v>18</v>
+      </c>
+      <c r="C380" t="s">
+        <v>109</v>
+      </c>
+      <c r="D380">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>19</v>
+      </c>
+      <c r="B381">
+        <v>18</v>
+      </c>
+      <c r="C381" t="s">
+        <v>74</v>
+      </c>
+      <c r="D381">
+        <v>0.9203902343366999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>0</v>
+      </c>
+      <c r="B382">
+        <v>19</v>
+      </c>
+      <c r="C382" t="s">
+        <v>107</v>
+      </c>
+      <c r="D382">
+        <v>0.9240158503312978</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>1</v>
+      </c>
+      <c r="B383">
+        <v>19</v>
+      </c>
+      <c r="C383" t="s">
+        <v>15</v>
+      </c>
+      <c r="D383">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>2</v>
+      </c>
+      <c r="B384">
+        <v>19</v>
+      </c>
+      <c r="C384" t="s">
+        <v>69</v>
+      </c>
+      <c r="D384">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1">
+        <v>3</v>
+      </c>
+      <c r="B385">
+        <v>19</v>
+      </c>
+      <c r="C385" t="s">
+        <v>69</v>
+      </c>
+      <c r="D385">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1">
+        <v>4</v>
+      </c>
+      <c r="B386">
+        <v>19</v>
+      </c>
+      <c r="C386" t="s">
+        <v>119</v>
+      </c>
+      <c r="D386">
+        <v>0.9203902343366999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1">
+        <v>5</v>
+      </c>
+      <c r="B387">
+        <v>19</v>
+      </c>
+      <c r="C387" t="s">
+        <v>56</v>
+      </c>
+      <c r="D387">
+        <v>0.6623076923076922</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1">
+        <v>6</v>
+      </c>
+      <c r="B388">
+        <v>19</v>
+      </c>
+      <c r="C388" t="s">
+        <v>9</v>
+      </c>
+      <c r="D388">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1">
+        <v>7</v>
+      </c>
+      <c r="B389">
+        <v>19</v>
+      </c>
+      <c r="C389" t="s">
+        <v>69</v>
+      </c>
+      <c r="D389">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>8</v>
+      </c>
+      <c r="B390">
+        <v>19</v>
+      </c>
+      <c r="C390" t="s">
+        <v>69</v>
+      </c>
+      <c r="D390">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1">
+        <v>9</v>
+      </c>
+      <c r="B391">
+        <v>19</v>
+      </c>
+      <c r="C391" t="s">
+        <v>9</v>
+      </c>
+      <c r="D391">
+        <v>0.5354545454545454</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>10</v>
+      </c>
+      <c r="B392">
+        <v>19</v>
+      </c>
+      <c r="C392" t="s">
+        <v>15</v>
+      </c>
+      <c r="D392">
+        <v>0.6723076923076922</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>11</v>
+      </c>
+      <c r="B393">
+        <v>19</v>
+      </c>
+      <c r="C393" t="s">
+        <v>120</v>
+      </c>
+      <c r="D393">
+        <v>0.9103748405455794</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1">
+        <v>12</v>
+      </c>
+      <c r="B394">
+        <v>19</v>
+      </c>
+      <c r="C394" t="s">
+        <v>115</v>
+      </c>
+      <c r="D394">
+        <v>0.9203748405455794</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1">
+        <v>13</v>
+      </c>
+      <c r="B395">
+        <v>19</v>
+      </c>
+      <c r="C395" t="s">
+        <v>74</v>
+      </c>
+      <c r="D395">
+        <v>0.9203902343366999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1">
+        <v>14</v>
+      </c>
+      <c r="B396">
+        <v>19</v>
+      </c>
+      <c r="C396" t="s">
+        <v>121</v>
+      </c>
+      <c r="D396">
+        <v>0.8446142167430842</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1">
+        <v>15</v>
+      </c>
+      <c r="B397">
+        <v>19</v>
+      </c>
+      <c r="C397" t="s">
+        <v>69</v>
+      </c>
+      <c r="D397">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1">
+        <v>16</v>
+      </c>
+      <c r="B398">
+        <v>19</v>
+      </c>
+      <c r="C398" t="s">
+        <v>41</v>
+      </c>
+      <c r="D398">
+        <v>0.9314791987673343</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1">
+        <v>17</v>
+      </c>
+      <c r="B399">
+        <v>19</v>
+      </c>
+      <c r="C399" t="s">
+        <v>20</v>
+      </c>
+      <c r="D399">
+        <v>0.9340158503312979</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1">
+        <v>18</v>
+      </c>
+      <c r="B400">
+        <v>19</v>
+      </c>
+      <c r="C400" t="s">
+        <v>99</v>
+      </c>
+      <c r="D400">
+        <v>0.9214791987673343</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1">
+        <v>19</v>
+      </c>
+      <c r="B401">
+        <v>19</v>
+      </c>
+      <c r="C401" t="s">
+        <v>69</v>
+      </c>
+      <c r="D401">
+        <v>0.9340158503312979</v>
       </c>
     </row>
   </sheetData>
